--- a/Documents/Estimations/Estimations_architecture.xlsx
+++ b/Documents/Estimations/Estimations_architecture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Documents\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9651CC3-9608-4A0E-84D8-4D3C4E1D1FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3208C992-73F4-49D5-85E8-EF560201A4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A0D9DBF-42C0-4FEB-BCA1-02C2EDCC6869}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,47 +626,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,7 +985,7 @@
   <dimension ref="C10:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+      <selection activeCell="C73" sqref="C73:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="22" spans="3:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="10"/>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="19">
         <f>SUM(F14:F21)</f>
         <v>2560</v>
@@ -1348,20 +1348,20 @@
       <c r="C34" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="46">
         <f>SUM(D29:D33)</f>
         <v>960</v>
       </c>
-      <c r="E34" s="41"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="6"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="3:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="13"/>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="39"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="14">
         <f>SUM(F29:F33)</f>
         <v>57600</v>
@@ -1382,20 +1382,20 @@
     </row>
     <row r="40" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="43"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="3:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
@@ -1520,10 +1520,10 @@
     </row>
     <row r="51" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="10"/>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="35"/>
+      <c r="E51" s="45"/>
       <c r="F51" s="19">
         <f>SUM(F44:F50)</f>
         <v>2650</v>
@@ -1695,19 +1695,19 @@
       <c r="C63" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="46">
         <f>SUM(D58:D62)</f>
         <v>745</v>
       </c>
-      <c r="E63" s="41"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="13"/>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="39"/>
+      <c r="E64" s="35"/>
       <c r="F64" s="14">
         <f>SUM(F58:F62)</f>
         <v>44700</v>
@@ -1726,20 +1726,20 @@
     </row>
     <row r="72" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D73" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="45"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="41"/>
     </row>
     <row r="74" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="43"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="47"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="43"/>
     </row>
     <row r="75" spans="3:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2" t="s">
@@ -1864,10 +1864,10 @@
     </row>
     <row r="83" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C83" s="10"/>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="35"/>
+      <c r="E83" s="45"/>
       <c r="F83" s="19">
         <f>SUM(F76:F82)</f>
         <v>1650</v>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="F86" s="15">
         <f>-Sheet2!C13</f>
-        <v>6443.1995346518943</v>
+        <v>8730.9687274061471</v>
       </c>
       <c r="H86" s="28" t="s">
         <v>40</v>
@@ -1944,7 +1944,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="11">
         <f>SUM(F85:F87)</f>
-        <v>6443.1995346518943</v>
+        <v>8730.9687274061471</v>
       </c>
       <c r="H88" t="s">
         <v>37</v>
@@ -2047,19 +2047,19 @@
       <c r="C95" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="40">
+      <c r="D95" s="46">
         <f>SUM(D90:D94)</f>
         <v>745</v>
       </c>
-      <c r="E95" s="41"/>
+      <c r="E95" s="47"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="13"/>
-      <c r="D96" s="38" t="s">
+      <c r="D96" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="39"/>
+      <c r="E96" s="35"/>
       <c r="F96" s="14">
         <f>SUM(F90:F94)</f>
         <v>44700</v>
@@ -2073,7 +2073,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="19">
         <f>SUM(F83,F88,F96)</f>
-        <v>52793.199534651896</v>
+        <v>55080.968727406143</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -2087,20 +2087,20 @@
     </row>
     <row r="109" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="42" t="s">
+      <c r="C110" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D110" s="44" t="s">
+      <c r="D110" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="44"/>
-      <c r="F110" s="45"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="41"/>
     </row>
     <row r="111" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="43"/>
-      <c r="D111" s="46"/>
-      <c r="E111" s="46"/>
-      <c r="F111" s="47"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="43"/>
     </row>
     <row r="112" spans="3:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C112" s="2" t="s">
@@ -2330,10 +2330,10 @@
     </row>
     <row r="127" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C127" s="10"/>
-      <c r="D127" s="34" t="s">
+      <c r="D127" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E127" s="35"/>
+      <c r="E127" s="45"/>
       <c r="F127" s="19">
         <f>SUM(F113:F126)</f>
         <v>2910</v>
@@ -2502,19 +2502,19 @@
       <c r="C139" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D139" s="40">
+      <c r="D139" s="46">
         <f>SUM(D134:D138)</f>
         <v>745</v>
       </c>
-      <c r="E139" s="41"/>
+      <c r="E139" s="47"/>
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C140" s="13"/>
-      <c r="D140" s="38" t="s">
+      <c r="D140" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E140" s="39"/>
+      <c r="E140" s="35"/>
       <c r="F140" s="14">
         <f>SUM(F134:F138)</f>
         <v>44700</v>
@@ -2533,13 +2533,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:F111"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D41:F42"/>
@@ -2554,11 +2552,13 @@
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:F111"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D139:E139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2573,7 +2573,7 @@
   <dimension ref="B4:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,7 +2738,7 @@
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="C6" s="30">
         <f>-Sheet1!F88</f>
-        <v>-6443.1995346518943</v>
+        <v>-8730.9687274061471</v>
       </c>
       <c r="D6">
         <v>-130</v>
@@ -2896,14 +2896,14 @@
         <v>41</v>
       </c>
       <c r="C11" s="29">
-        <f>NPV(-0.125%,0,D6:AY6)</f>
-        <v>-6443.1995346518943</v>
+        <f>NPV(-1.25%,0,D6:AY6)</f>
+        <v>-8730.9687274061471</v>
       </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.25">
       <c r="C13" s="32">
         <f>C11</f>
-        <v>-6443.1995346518943</v>
+        <v>-8730.9687274061471</v>
       </c>
       <c r="D13" s="31"/>
     </row>
